--- a/1003/result_seebeck_2.xlsx
+++ b/1003/result_seebeck_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a22f75bc03278c13/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_Github\1003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{5190B4B4-5D99-47A8-94FC-A9357787F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12D559D9-5360-4093-AB60-289F6856E6EB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DA7DF8-E5F4-46EB-A916-0A71D19600C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7425" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{A1C7E65C-9A32-4076-90FD-7594AF1CA651}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{A1C7E65C-9A32-4076-90FD-7594AF1CA651}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6674618-C5E7-4EB6-A3E0-A70622ADF498}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -1339,9 +1339,9 @@
         <v>1.0998481005295742</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:3" ht="16.3" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A82">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1352,84 +1352,84 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A83">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B83">
         <v>0.5</v>
       </c>
       <c r="C83">
-        <v>1.0671546543654125</v>
+        <v>0.89070575832906895</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A84">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
-        <v>1.1204824911751681</v>
+        <v>0.83017235727757843</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A85">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
       <c r="C85">
-        <v>0.9510938895267248</v>
+        <v>0.79053739230338826</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A86">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B86">
         <v>4</v>
       </c>
       <c r="C86">
-        <v>1.0117098640338149</v>
+        <v>0.83402206918655464</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A87">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B87">
         <v>8</v>
       </c>
       <c r="C87">
-        <v>1.0696594467004159</v>
+        <v>0.99208782663147044</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A88">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B88">
         <v>12</v>
       </c>
       <c r="C88">
-        <v>1.0121300227480723</v>
+        <v>0.97079114449462089</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A89">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B89">
         <v>16</v>
       </c>
       <c r="C89">
-        <v>0.94626206431275062</v>
+        <v>0.96897059107953898</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A90">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1440,78 +1440,254 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A91">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B91">
         <v>0.5</v>
       </c>
       <c r="C91">
-        <v>0.89844268814447004</v>
+        <v>0.93258565383072167</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A92">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92">
-        <v>0.90991082584769689</v>
+        <v>0.86519298651300192</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A93">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
       <c r="C93">
-        <v>0.76280002228843291</v>
+        <v>0.85880185460854552</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A94">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B94">
         <v>4</v>
       </c>
       <c r="C94">
-        <v>0.62391955314998659</v>
+        <v>0.95601980414706011</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A95">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B95">
         <v>8</v>
       </c>
       <c r="C95">
-        <v>0.70208203329631214</v>
+        <v>1.0707743961063405</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A96">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B96">
         <v>12</v>
       </c>
       <c r="C96">
-        <v>0.61487426144039881</v>
+        <v>1.0637077787160467</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.65">
       <c r="A97">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B97">
         <v>16</v>
       </c>
       <c r="C97">
+        <v>1.0579141916644463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>0.5</v>
+      </c>
+      <c r="C99">
+        <v>1.0671546543654125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>1.1204824911751681</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>0.9510938895267248</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A102">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>1.0117098640338149</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A103">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>1.0696594467004159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A104">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>1.0121300227480723</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A105">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>16</v>
+      </c>
+      <c r="C105">
+        <v>0.94626206431275062</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A106">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A107">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>0.5</v>
+      </c>
+      <c r="C107">
+        <v>0.89844268814447004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A108">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>0.90991082584769689</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A109">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>0.76280002228843291</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A110">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>0.62391955314998659</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A111">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <v>0.70208203329631214</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A112">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>0.61487426144039881</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.65">
+      <c r="A113">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>16</v>
+      </c>
+      <c r="C113">
         <v>0.62882398079771806</v>
       </c>
     </row>

--- a/1003/result_seebeck_2.xlsx
+++ b/1003/result_seebeck_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a22f75bc03278c13/ドキュメント/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_Github\1003\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="8_{5190B4B4-5D99-47A8-94FC-A9357787F525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12D559D9-5360-4093-AB60-289F6856E6EB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33459632-7BA9-4C1F-8A64-81E6B4F39003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7425" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{A1C7E65C-9A32-4076-90FD-7594AF1CA651}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="17472" windowHeight="20976" xr2:uid="{A1C7E65C-9A32-4076-90FD-7594AF1CA651}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,15 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6674618-C5E7-4EB6-A3E0-A70622ADF498}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="84" workbookViewId="0">
+      <selection activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>90</v>
       </c>
@@ -470,7 +470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>90</v>
       </c>
@@ -481,7 +481,7 @@
         <v>1.3910879445198736</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>90</v>
       </c>
@@ -492,7 +492,7 @@
         <v>1.4167400421891414</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>90</v>
       </c>
@@ -503,7 +503,7 @@
         <v>1.9155430035103898</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>90</v>
       </c>
@@ -514,7 +514,7 @@
         <v>1.6206232166983392</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>90</v>
       </c>
@@ -525,7 +525,7 @@
         <v>1.7869916150873826</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>90</v>
       </c>
@@ -536,7 +536,7 @@
         <v>1.8045929586869596</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>90</v>
       </c>
@@ -547,7 +547,7 @@
         <v>1.7404476028214924</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>90</v>
       </c>
@@ -558,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>90</v>
       </c>
@@ -569,7 +569,7 @@
         <v>1.3741599696495135</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>90</v>
       </c>
@@ -580,7 +580,7 @@
         <v>1.4540273710410854</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>90</v>
       </c>
@@ -591,7 +591,7 @@
         <v>1.6754292989600614</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>90</v>
       </c>
@@ -602,7 +602,7 @@
         <v>1.6975277719209991</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>90</v>
       </c>
@@ -613,7 +613,7 @@
         <v>1.757760777867631</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>90</v>
       </c>
@@ -624,7 +624,7 @@
         <v>1.6923910177342083</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>90</v>
       </c>
@@ -635,7 +635,7 @@
         <v>1.6551430311563917</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>80</v>
       </c>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>80</v>
       </c>
@@ -657,7 +657,7 @@
         <v>1.3002296211251454</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>80</v>
       </c>
@@ -668,7 +668,7 @@
         <v>1.4589675854898414</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>80</v>
       </c>
@@ -679,7 +679,7 @@
         <v>1.6918582716099559</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>80</v>
       </c>
@@ -690,7 +690,7 @@
         <v>1.7850094320771928</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>80</v>
       </c>
@@ -701,7 +701,7 @@
         <v>1.7911206391460031</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>80</v>
       </c>
@@ -712,7 +712,7 @@
         <v>1.7946748558094516</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>80</v>
       </c>
@@ -723,7 +723,7 @@
         <v>1.7930128120459676</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>80</v>
       </c>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>80</v>
       </c>
@@ -745,7 +745,7 @@
         <v>1.3282447080188415</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>80</v>
       </c>
@@ -756,7 +756,7 @@
         <v>1.4433298841070596</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>80</v>
       </c>
@@ -767,7 +767,7 @@
         <v>1.7088987386015095</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>80</v>
       </c>
@@ -778,7 +778,7 @@
         <v>1.7653067592636316</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>80</v>
       </c>
@@ -789,7 +789,7 @@
         <v>1.9701962805990665</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>80</v>
       </c>
@@ -800,7 +800,7 @@
         <v>1.8701407853592977</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>80</v>
       </c>
@@ -811,7 +811,7 @@
         <v>2.0865895461394577</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>70</v>
       </c>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>70</v>
       </c>
@@ -833,7 +833,7 @@
         <v>1.1423896022875757</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>70</v>
       </c>
@@ -844,7 +844,7 @@
         <v>1.5347945072565032</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>70</v>
       </c>
@@ -855,7 +855,7 @@
         <v>1.8404657093915655</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>70</v>
       </c>
@@ -866,7 +866,7 @@
         <v>1.9425373418588685</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>70</v>
       </c>
@@ -877,7 +877,7 @@
         <v>2.1692296525978643</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>70</v>
       </c>
@@ -888,7 +888,7 @@
         <v>2.1722056687953959</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>70</v>
       </c>
@@ -899,7 +899,7 @@
         <v>2.2686400398116064</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>70</v>
       </c>
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>70</v>
       </c>
@@ -921,7 +921,7 @@
         <v>1.3427457800166049</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>70</v>
       </c>
@@ -932,7 +932,7 @@
         <v>1.4098818192773148</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>70</v>
       </c>
@@ -943,7 +943,7 @@
         <v>1.486965789895345</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>70</v>
       </c>
@@ -954,7 +954,7 @@
         <v>1.7034957631326972</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>70</v>
       </c>
@@ -965,7 +965,7 @@
         <v>1.7350641985706272</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>70</v>
       </c>
@@ -976,7 +976,7 @@
         <v>1.8770846658376981</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>70</v>
       </c>
@@ -987,9 +987,9 @@
         <v>1.846441038088767</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -998,86 +998,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>0.5</v>
       </c>
       <c r="C51">
-        <v>1.0070661251664219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.2445549963814715</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52">
-        <v>0.88019371413406744</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.4211189113183578</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53">
-        <v>0.87276192809210162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.5673956927794948</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B54">
         <v>4</v>
       </c>
       <c r="C54">
-        <v>0.93481734154252583</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.6995090895854146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>8</v>
       </c>
       <c r="C55">
-        <v>1.1096416629683916</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.768632104289694</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>12</v>
       </c>
       <c r="C56">
-        <v>1.0809026085356477</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.8358370907052723</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>16</v>
       </c>
       <c r="C57">
-        <v>1.0348930967667427</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.7843545985359499</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -1086,86 +1086,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>0.5</v>
       </c>
       <c r="C59">
-        <v>1.0854361834300306</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.2098298405281387</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
       <c r="C60">
-        <v>0.81221486156775513</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.2703588634678395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
       <c r="C61">
-        <v>0.87745194874793775</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.4273840345869868</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A62">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>4</v>
       </c>
       <c r="C62">
-        <v>0.990599572790831</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.6571566259736548</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A63">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B63">
         <v>8</v>
       </c>
       <c r="C63">
-        <v>1.045084135373743</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.6383286178046765</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A64">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B64">
         <v>12</v>
       </c>
       <c r="C64">
-        <v>1.1708110099627793</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.6480449542462534</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B65">
         <v>16</v>
       </c>
       <c r="C65">
-        <v>1.1320012874082357</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.6184372337590414</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1174,86 +1174,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B67">
         <v>0.5</v>
       </c>
       <c r="C67">
-        <v>0.86996310364871721</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.0070661251664219</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
       <c r="C68">
-        <v>0.85338959983000662</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.65">
+        <v>0.88019371413406744</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
       <c r="C69">
-        <v>0.83445602906751182</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.65">
+        <v>0.87276192809210162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B70">
         <v>4</v>
       </c>
       <c r="C70">
-        <v>0.97226802802085599</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.65">
+        <v>0.93481734154252583</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B71">
         <v>8</v>
       </c>
       <c r="C71">
-        <v>0.97987858097440772</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.1096416629683916</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A72">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B72">
         <v>12</v>
       </c>
       <c r="C72">
-        <v>0.99380032418212527</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.0809026085356477</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B73">
         <v>16</v>
       </c>
       <c r="C73">
-        <v>0.99380032418212494</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.0348930967667427</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A74">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1262,86 +1262,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B75">
         <v>0.5</v>
       </c>
       <c r="C75">
-        <v>0.88426983985121499</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.0854361834300306</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A76">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76">
-        <v>0.87704016274487306</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.65">
+        <v>0.81221486156775513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B77">
         <v>2</v>
       </c>
       <c r="C77">
-        <v>0.93238735748120027</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.65">
+        <v>0.87745194874793775</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A78">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B78">
         <v>4</v>
       </c>
       <c r="C78">
-        <v>0.98979634902192803</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.65">
+        <v>0.990599572790831</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B79">
         <v>8</v>
       </c>
       <c r="C79">
-        <v>0.9970795792920204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.045084135373743</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B80">
         <v>12</v>
       </c>
       <c r="C80">
-        <v>1.0848532146793839</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.1708110099627793</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A81">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B81">
         <v>16</v>
       </c>
       <c r="C81">
-        <v>1.0998481005295742</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.1320012874082357</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A82">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -1350,86 +1350,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A83">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B83">
         <v>0.5</v>
       </c>
       <c r="C83">
-        <v>1.0671546543654125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.0359051872581857</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A84">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
       <c r="C84">
-        <v>1.1204824911751681</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.0838091414163229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B85">
         <v>2</v>
       </c>
       <c r="C85">
-        <v>0.9510938895267248</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.1636134221901826</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B86">
         <v>4</v>
       </c>
       <c r="C86">
-        <v>1.0117098640338149</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.2834445932315939</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B87">
         <v>8</v>
       </c>
       <c r="C87">
-        <v>1.0696594467004159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.4265683491259364</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B88">
         <v>12</v>
       </c>
       <c r="C88">
-        <v>1.0121300227480723</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.3769178966391178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B89">
         <v>16</v>
       </c>
       <c r="C89">
-        <v>0.94626206431275062</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.4372077318016825</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A90">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -1438,81 +1438,1225 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B91">
         <v>0.5</v>
       </c>
       <c r="C91">
-        <v>0.89844268814447004</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.0250418151732132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
       <c r="C92">
-        <v>0.90991082584769689</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.0215558521135475</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A93">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B93">
         <v>2</v>
       </c>
       <c r="C93">
-        <v>0.76280002228843291</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.1224051382643725</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B94">
         <v>4</v>
       </c>
       <c r="C94">
-        <v>0.62391955314998659</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.2389225164468067</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B95">
         <v>8</v>
       </c>
       <c r="C95">
-        <v>0.70208203329631214</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.2660230679751627</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B96">
         <v>12</v>
       </c>
       <c r="C96">
-        <v>0.61487426144039881</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.65">
+        <v>1.2867139454905905</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B97">
         <v>16</v>
       </c>
       <c r="C97">
+        <v>1.2397658946064019</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>40</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>40</v>
+      </c>
+      <c r="B99">
+        <v>0.5</v>
+      </c>
+      <c r="C99">
+        <v>0.99568618754453897</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>40</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
+        <v>0.97761314927825738</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>40</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>1.1030812403303212</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>40</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102">
+        <v>1.1984276009385826</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>40</v>
+      </c>
+      <c r="B103">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>1.2672251116838227</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>40</v>
+      </c>
+      <c r="B104">
+        <v>12</v>
+      </c>
+      <c r="C104">
+        <v>1.2855328647327826</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>40</v>
+      </c>
+      <c r="B105">
+        <v>16</v>
+      </c>
+      <c r="C105">
+        <v>1.3324497418482815</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>40</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>40</v>
+      </c>
+      <c r="B107">
+        <v>0.5</v>
+      </c>
+      <c r="C107">
+        <v>0.97525561735900324</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>40</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>1.0045897836028319</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>40</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>0.97025615986775504</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>40</v>
+      </c>
+      <c r="B110">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>1.08672946471406</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>40</v>
+      </c>
+      <c r="B111">
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <v>1.1481685808715663</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>40</v>
+      </c>
+      <c r="B112">
+        <v>12</v>
+      </c>
+      <c r="C112">
+        <v>1.2190042677355155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>40</v>
+      </c>
+      <c r="B113">
+        <v>16</v>
+      </c>
+      <c r="C113">
+        <v>1.2466920262914629</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>30</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>30</v>
+      </c>
+      <c r="B115">
+        <v>0.5</v>
+      </c>
+      <c r="C115">
+        <v>0.86996310364871721</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>30</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>0.85338959983000662</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>30</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>0.83445602906751182</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>30</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118">
+        <v>0.97226802802085599</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>30</v>
+      </c>
+      <c r="B119">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>0.97987858097440772</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>30</v>
+      </c>
+      <c r="B120">
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <v>0.99380032418212527</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>30</v>
+      </c>
+      <c r="B121">
+        <v>16</v>
+      </c>
+      <c r="C121">
+        <v>0.99380032418212494</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>30</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>30</v>
+      </c>
+      <c r="B123">
+        <v>0.5</v>
+      </c>
+      <c r="C123">
+        <v>0.88426983985121499</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>30</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>0.87704016274487306</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>30</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>0.93238735748120027</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>30</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126">
+        <v>0.98979634902192803</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>30</v>
+      </c>
+      <c r="B127">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>0.9970795792920204</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>30</v>
+      </c>
+      <c r="B128">
+        <v>12</v>
+      </c>
+      <c r="C128">
+        <v>1.0848532146793839</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>30</v>
+      </c>
+      <c r="B129">
+        <v>16</v>
+      </c>
+      <c r="C129">
+        <v>1.0998481005295742</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>30</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>30</v>
+      </c>
+      <c r="B131">
+        <v>0.5</v>
+      </c>
+      <c r="C131">
+        <v>0.94956279289939183</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>30</v>
+      </c>
+      <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
+        <v>0.95059833198901422</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>30</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>0.93264898776889193</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>30</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134">
+        <v>0.98609873616401877</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>30</v>
+      </c>
+      <c r="B135">
+        <v>8</v>
+      </c>
+      <c r="C135">
+        <v>1.0252368032948738</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>30</v>
+      </c>
+      <c r="B136">
+        <v>12</v>
+      </c>
+      <c r="C136">
+        <v>1.0303613941742875</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>30</v>
+      </c>
+      <c r="B137">
+        <v>16</v>
+      </c>
+      <c r="C137">
+        <v>1.0690215201868576</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>20</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>20</v>
+      </c>
+      <c r="B139">
+        <v>0.5</v>
+      </c>
+      <c r="C139">
+        <v>0.89070575832906895</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>20</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140">
+        <v>0.83017235727757843</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>20</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>0.79053739230338826</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>20</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+      <c r="C142">
+        <v>0.83402206918655464</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>20</v>
+      </c>
+      <c r="B143">
+        <v>8</v>
+      </c>
+      <c r="C143">
+        <v>0.99208782663147044</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>20</v>
+      </c>
+      <c r="B144">
+        <v>12</v>
+      </c>
+      <c r="C144">
+        <v>0.97079114449462089</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>20</v>
+      </c>
+      <c r="B145">
+        <v>16</v>
+      </c>
+      <c r="C145">
+        <v>0.96897059107953898</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>20</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>20</v>
+      </c>
+      <c r="B147">
+        <v>0.5</v>
+      </c>
+      <c r="C147">
+        <v>0.93258565383072167</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>20</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
+        <v>0.86519298651300192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>20</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>0.85880185460854552</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>20</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="C150">
+        <v>0.95601980414706011</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>20</v>
+      </c>
+      <c r="B151">
+        <v>8</v>
+      </c>
+      <c r="C151">
+        <v>1.0707743961063405</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>20</v>
+      </c>
+      <c r="B152">
+        <v>12</v>
+      </c>
+      <c r="C152">
+        <v>1.0637077787160467</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>20</v>
+      </c>
+      <c r="B153">
+        <v>16</v>
+      </c>
+      <c r="C153">
+        <v>1.0579141916644463</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>10</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>10</v>
+      </c>
+      <c r="B155">
+        <v>0.5</v>
+      </c>
+      <c r="C155">
+        <v>0.86404528577023365</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>10</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>0.80456258068966247</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>10</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>0.92692525889063204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>10</v>
+      </c>
+      <c r="B158">
+        <v>4</v>
+      </c>
+      <c r="C158">
+        <v>0.90442598672267271</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>10</v>
+      </c>
+      <c r="B159">
+        <v>8</v>
+      </c>
+      <c r="C159">
+        <v>0.8628450533489771</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>10</v>
+      </c>
+      <c r="B160">
+        <v>12</v>
+      </c>
+      <c r="C160">
+        <v>0.63451609239674511</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>10</v>
+      </c>
+      <c r="B161">
+        <v>16</v>
+      </c>
+      <c r="C161">
+        <v>0.61799763941267416</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>10</v>
+      </c>
+      <c r="B162">
+        <v>0</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>10</v>
+      </c>
+      <c r="B163">
+        <v>0.5</v>
+      </c>
+      <c r="C163">
+        <v>0.90086503010917585</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>10</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>0.84252646971355538</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>10</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165">
+        <v>0.88483418200046393</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>10</v>
+      </c>
+      <c r="B166">
+        <v>4</v>
+      </c>
+      <c r="C166">
+        <v>0.8269204962743909</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>10</v>
+      </c>
+      <c r="B167">
+        <v>8</v>
+      </c>
+      <c r="C167">
+        <v>0.87460450726442485</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>10</v>
+      </c>
+      <c r="B168">
+        <v>12</v>
+      </c>
+      <c r="C168">
+        <v>0.86380288585784015</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>10</v>
+      </c>
+      <c r="B169">
+        <v>16</v>
+      </c>
+      <c r="C169">
+        <v>0.88573295533989149</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>0.5</v>
+      </c>
+      <c r="C171">
+        <v>1.0671546543654125</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>0</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>1.1204824911751681</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>0</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173">
+        <v>0.9510938895267248</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>4</v>
+      </c>
+      <c r="C174">
+        <v>1.0117098640338149</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>8</v>
+      </c>
+      <c r="C175">
+        <v>1.0696594467004159</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <v>12</v>
+      </c>
+      <c r="C176">
+        <v>1.0121300227480723</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <v>16</v>
+      </c>
+      <c r="C177">
+        <v>0.94626206431275062</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>0</v>
+      </c>
+      <c r="C178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>0.5</v>
+      </c>
+      <c r="C179">
+        <v>0.89844268814447004</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
+        <v>0.90991082584769689</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181">
+        <v>0.76280002228843291</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>4</v>
+      </c>
+      <c r="C182">
+        <v>0.62391955314998659</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>0</v>
+      </c>
+      <c r="B183">
+        <v>8</v>
+      </c>
+      <c r="C183">
+        <v>0.70208203329631214</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>12</v>
+      </c>
+      <c r="C184">
+        <v>0.61487426144039881</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>0</v>
+      </c>
+      <c r="B185">
+        <v>16</v>
+      </c>
+      <c r="C185">
         <v>0.62882398079771806</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>0</v>
+      </c>
+      <c r="B186">
+        <v>0</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>0</v>
+      </c>
+      <c r="B187">
+        <v>0.5</v>
+      </c>
+      <c r="C187">
+        <v>0.80704004250591921</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>0</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>0.76385133969542174</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189">
+        <v>0.74579960806232504</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>0</v>
+      </c>
+      <c r="B190">
+        <v>4</v>
+      </c>
+      <c r="C190">
+        <v>0.74410644420063454</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>0</v>
+      </c>
+      <c r="B191">
+        <v>8</v>
+      </c>
+      <c r="C191">
+        <v>0.73194171307126132</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>0</v>
+      </c>
+      <c r="B192">
+        <v>12</v>
+      </c>
+      <c r="C192">
+        <v>0.7789335224018622</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>0</v>
+      </c>
+      <c r="B193">
+        <v>16</v>
+      </c>
+      <c r="C193">
+        <v>0.82889488065912043</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="B194">
+        <v>0</v>
+      </c>
+      <c r="C194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>0.5</v>
+      </c>
+      <c r="C195">
+        <v>0.84611104162613371</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
+        <v>0.79686312964970285</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>0</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197">
+        <v>0.76040262491082666</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>0</v>
+      </c>
+      <c r="B198">
+        <v>4</v>
+      </c>
+      <c r="C198">
+        <v>0.77242497359570805</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>8</v>
+      </c>
+      <c r="C199">
+        <v>0.8521659336001558</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>12</v>
+      </c>
+      <c r="C200">
+        <v>0.83502862202025241</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>16</v>
+      </c>
+      <c r="C201">
+        <v>0.77159433859566307</v>
       </c>
     </row>
   </sheetData>
